--- a/app/src/docs/webservices/schedule.xlsx
+++ b/app/src/docs/webservices/schedule.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\android\Desktop\webservices\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Android\Workspace\SocialBusiness\app\src\docs\webservices\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -148,9 +148,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -158,6 +155,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -443,7 +443,7 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="A8" sqref="A8:A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -460,18 +460,18 @@
       <c r="B1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="6" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="8" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="3" t="s">
@@ -482,9 +482,9 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="5"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5" t="s">
+      <c r="A3" s="8"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8" t="s">
         <v>5</v>
       </c>
       <c r="D3" s="2" t="s">
@@ -492,18 +492,18 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="5"/>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
+      <c r="A4" s="8"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
       <c r="D4" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="8" t="s">
         <v>8</v>
       </c>
       <c r="C5" s="3" t="s">
@@ -514,9 +514,9 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="5"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5" t="s">
+      <c r="A6" s="8"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8" t="s">
         <v>5</v>
       </c>
       <c r="D6" s="2" t="s">
@@ -524,40 +524,40 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="5"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
+      <c r="A7" s="8"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
       <c r="D7" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D8" s="5" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="5"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="6" t="s">
+      <c r="A9" s="8"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="5" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="5"/>
-      <c r="B10" s="5"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="6" t="s">
+      <c r="A10" s="8"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="5" t="s">
         <v>20</v>
       </c>
     </row>
